--- a/stock.xlsx
+++ b/stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C923AE-A8DA-4F33-BD73-84B3E039DCF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28794E2C-C31E-47FA-991E-C1689264D452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="门票" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="PE&lt;10" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,13 +28,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve"> 市盈率(PE)</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市净率(PB)</t>
   </si>
   <si>
     <t>市净率比较低，说明越被低估。</t>
@@ -73,14 +71,6 @@
     <t>中航产融</t>
   </si>
   <si>
-    <t>PE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>股息率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -123,13 +113,116 @@
   <si>
     <t>收益额</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5年平均ROE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0088CB"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3.658%</t>
+    </r>
+  </si>
+  <si>
+    <t>市净率(PB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB市净率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE 市盈率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>智光电气</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>002169</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002170</t>
+  </si>
+  <si>
+    <t>002171</t>
+  </si>
+  <si>
+    <t>002172</t>
+  </si>
+  <si>
+    <t>002173</t>
+  </si>
+  <si>
+    <t>002174</t>
+  </si>
+  <si>
+    <t>002175</t>
+  </si>
+  <si>
+    <t>002176</t>
+  </si>
+  <si>
+    <t>002177</t>
+  </si>
+  <si>
+    <t>002178</t>
+  </si>
+  <si>
+    <t>002179</t>
+  </si>
+  <si>
+    <t>002180</t>
+  </si>
+  <si>
+    <t>002181</t>
+  </si>
+  <si>
+    <t>002182</t>
+  </si>
+  <si>
+    <t>002183</t>
+  </si>
+  <si>
+    <t>002184</t>
+  </si>
+  <si>
+    <t>002185</t>
+  </si>
+  <si>
+    <t>002186</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +294,37 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0088CB"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -239,13 +363,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -255,9 +380,16 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -537,6 +669,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>208238</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>36647</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BA71E8B-FA08-4CFD-B6FC-9554670120C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="2533650"/>
+          <a:ext cx="10495238" cy="11619047"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -800,70 +981,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEE8F47-2239-41AB-A04C-31245F126C81}">
-  <dimension ref="B3:P22"/>
+  <dimension ref="B3:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="9" style="14"/>
     <col min="10" max="10" width="7.5" customWidth="1"/>
-    <col min="16" max="16" width="19" customWidth="1"/>
+    <col min="13" max="13" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="L3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="2:17" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="13">
         <v>600705</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -878,18 +1065,25 @@
       <c r="M4" s="7">
         <v>10.47</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="9">
+        <v>0.1134</v>
+      </c>
+      <c r="O4" s="6">
         <v>7.4200000000000002E-2</v>
       </c>
-      <c r="O4" s="6">
-        <v>2.8199999999999999E-2</v>
-      </c>
-      <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -902,10 +1096,13 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="C6" s="13" t="s">
+        <v>25</v>
+      </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -919,10 +1116,13 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="C7" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -936,10 +1136,13 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -953,10 +1156,13 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -970,10 +1176,13 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="C10" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -987,10 +1196,13 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -1004,10 +1216,13 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+      <c r="C12" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1021,10 +1236,13 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="C13" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -1038,10 +1256,13 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="13" t="s">
+        <v>33</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1055,10 +1276,13 @@
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="C15" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1072,10 +1296,13 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
+      <c r="C16" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -1089,10 +1316,13 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="5"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="C17" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1106,10 +1336,13 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="C18" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -1123,10 +1356,13 @@
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="5"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="C19" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -1140,10 +1376,13 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
+      <c r="C20" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -1157,10 +1396,13 @@
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="C21" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -1174,10 +1416,13 @@
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="5"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="C22" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -1191,13 +1436,15 @@
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" location="/company?companyid=600705" display="http://webapi.cninfo.com.cn/ - /company?companyid=600705" xr:uid="{C51753C8-C3BD-41CA-B2EA-9033D360DAB2}"/>
     <hyperlink ref="L4" r:id="rId2" tooltip="市净率" display="https://eniu.com/gu/sh600705/pb" xr:uid="{34C1B6F5-4EFC-407A-B240-C6C76EA6106A}"/>
-    <hyperlink ref="N4" r:id="rId3" tooltip="ROE" display="https://eniu.com/gu/sh600705/roe" xr:uid="{0C051460-B2CE-4ECE-BFF7-61658600C6C1}"/>
+    <hyperlink ref="O4" r:id="rId3" tooltip="ROE" display="https://eniu.com/gu/sh600705/roe" xr:uid="{0C051460-B2CE-4ECE-BFF7-61658600C6C1}"/>
+    <hyperlink ref="D5" r:id="rId4" location="/company?companyid=002169" display="http://webapi.cninfo.com.cn/ - /company?companyid=002169" xr:uid="{2A36B674-A623-4CF4-82C9-E493D3F2203B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1207,8 +1454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="S11:S37"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1220,32 +1467,32 @@
     </row>
     <row r="12" spans="19:19" ht="21" x14ac:dyDescent="0.4">
       <c r="S12" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="19:19" ht="20.25" x14ac:dyDescent="0.35">
       <c r="S14" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="19:19" ht="20.25" x14ac:dyDescent="0.35">
       <c r="S15" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="19:19" x14ac:dyDescent="0.2">
       <c r="S17" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="19:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="S36" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="19:19" x14ac:dyDescent="0.2">
       <c r="S37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1261,7 +1508,23 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+      <selection activeCell="Q26" sqref="Q26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625DE84A-7388-4DEB-8BB6-E88F212EABBC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28794E2C-C31E-47FA-991E-C1689264D452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E46A6F9-F4A9-4A65-B3F6-EF90A5DBD528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="门票" sheetId="3" r:id="rId1"/>
@@ -409,16 +409,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>63055</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>396430</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -441,7 +441,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7277100" y="1866901"/>
+          <a:off x="4181475" y="1600201"/>
           <a:ext cx="3072955" cy="6096000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -453,16 +453,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>139268</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>358343</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>504311</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>141849</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>37586</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>122799</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -485,7 +485,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3568268" y="1800224"/>
+          <a:off x="1044143" y="1600199"/>
           <a:ext cx="3108243" cy="6209275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -613,6 +613,50 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>164334</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3654BFB-16CD-4330-B86D-47BFCD2BFAF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7258050" y="1543050"/>
+          <a:ext cx="3067050" cy="6126984"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -983,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEE8F47-2239-41AB-A04C-31245F126C81}">
   <dimension ref="B3:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1454,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="S11:S37"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="X25" sqref="X25"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -1,34 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E46A6F9-F4A9-4A65-B3F6-EF90A5DBD528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A03205D-7CCD-4CCA-A1AA-500B4AF32F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="门票" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="PE&lt;10" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="猪" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
   <si>
     <t xml:space="preserve"> 市盈率(PE)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,66 +172,118 @@
     </r>
   </si>
   <si>
-    <t>002169</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002170</t>
-  </si>
-  <si>
-    <t>002171</t>
-  </si>
-  <si>
-    <t>002172</t>
-  </si>
-  <si>
-    <t>002173</t>
-  </si>
-  <si>
-    <t>002174</t>
-  </si>
-  <si>
-    <t>002175</t>
-  </si>
-  <si>
-    <t>002176</t>
-  </si>
-  <si>
-    <t>002177</t>
-  </si>
-  <si>
-    <t>002178</t>
-  </si>
-  <si>
-    <t>002179</t>
-  </si>
-  <si>
-    <t>002180</t>
-  </si>
-  <si>
-    <t>002181</t>
-  </si>
-  <si>
-    <t>002182</t>
-  </si>
-  <si>
-    <t>002183</t>
-  </si>
-  <si>
-    <t>002184</t>
-  </si>
-  <si>
-    <t>002185</t>
-  </si>
-  <si>
-    <t>002186</t>
+    <t>格力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千亿市值以上的企业一般是各行业的龙头，被研究得较为充分，散户的信息劣势，相对机构并不明显。</t>
+  </si>
+  <si>
+    <t>所谓周期，就是利润的大幅波动，一季度赚30亿，但也能一季度亏10亿。</t>
+  </si>
+  <si>
+    <t>从三季度各家的成本上来看，牧原以15元/公斤的优势明显领先于其他企业，其次为新希望19元/公斤和正邦20元/公斤。展望明年，目前成本控制较差的温氏（22元/公斤）和天邦（约30元/公斤）的成本下行空间更大，根据公司自身的展望和预估，明年温氏和天邦的成本可控制到17元/公斤附近。</t>
+  </si>
+  <si>
+    <t>从资产负债率上看，今年三季报显示牧原、温氏、新希望资产负债率分别为58%、62%、65%，属于行业内相对较低的。</t>
+  </si>
+  <si>
+    <t>从流动比率上看，温氏流动比率1.75，短期偿债能力做得最好，其次是新希望。</t>
+  </si>
+  <si>
+    <t>近期有部分声音称冬季来临，猪疫情可能再起，并且由于之前新冠还有产业亏损，所以这一轮防疫不是做得很好，所以猪疫情可能对产业影响比较大，会加快本轮猪周期去产能。我觉得这个观点不确定性比较大，但也确实是一个比较重要的观察点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市盈(动)</t>
+  </si>
+  <si>
+    <t>总市值：</t>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧原股份</t>
+  </si>
+  <si>
+    <t>002714</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>另外，今年下半年牧原刚刚定增60亿，新希望将发行约80亿可转债，这些都能有效补充公司现金流。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧原刚刚定增60亿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新 希 望</t>
+  </si>
+  <si>
+    <t>发行约80亿可转债</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000876</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>另外有很多研粉问怎么看猪肉个股，这里提供一个仅供参考的维度：由于这轮猪周期筑底时间可能会超预期，所以当前成本控制好、资产负债和现金流控制更好的猪企，整体财务会更健康一点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这轮猪周期筑底时间可能会超预期，</t>
+  </si>
+  <si>
+    <t>希望转债</t>
+  </si>
+  <si>
+    <t>希望2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溢价率53.88%，不能买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新澳股份</t>
+  </si>
+  <si>
+    <t>还有10多天就到12月4日了，个人觉得新澳转债发行的概率不能说没有，但比较渺茫了，之前潜伏新澳股份等待配债的投资者或许要扑空
+但新澳股份业绩不错，三季报同比增长148.62%，利润总额超过2014年上市以来任何一年，目前6.04元的股价也经历了较大的调整，即使不配债也不是很糟糕的投资标的，怀着一丝希望再等20天尘埃落定又何妨？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>候选</t>
+  </si>
+  <si>
+    <t>持仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清仓</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,8 +386,43 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3D3D3D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,8 +434,20 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -362,6 +470,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -370,7 +493,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -386,13 +509,55 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -409,16 +574,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>396430</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>234505</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -441,52 +606,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4181475" y="1600201"/>
+          <a:off x="1276350" y="1609726"/>
           <a:ext cx="3072955" cy="6096000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>358343</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>37586</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>122799</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24CE9394-F9E4-45A3-8F8A-D06DBB8E22C7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1044143" y="1600199"/>
-          <a:ext cx="3108243" cy="6209275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -522,7 +643,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -583,7 +704,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -619,16 +740,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>164334</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>40509</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -644,6 +765,50 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4362450" y="1600200"/>
+          <a:ext cx="3067050" cy="6126984"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>294762</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>151337</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45193187-8803-432C-A915-194F0D245383}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
@@ -651,8 +816,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7258050" y="1543050"/>
-          <a:ext cx="3067050" cy="6126984"/>
+          <a:off x="7563150" y="1590675"/>
+          <a:ext cx="3018612" cy="6247337"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1025,130 +1190,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEE8F47-2239-41AB-A04C-31245F126C81}">
-  <dimension ref="B3:Q22"/>
+  <dimension ref="B3:T28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="9" style="14"/>
-    <col min="10" max="10" width="7.5" customWidth="1"/>
-    <col min="13" max="13" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19" customWidth="1"/>
+    <col min="4" max="4" width="9" style="14"/>
+    <col min="11" max="11" width="7.5" customWidth="1"/>
+    <col min="14" max="14" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="63.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B3" s="8"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="8" t="s">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="Q3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="R3" s="8"/>
+      <c r="S3" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="2:17" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="5">
+      <c r="T3" s="8"/>
+    </row>
+    <row r="4" spans="2:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="13">
         <v>600705</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="5">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5">
         <v>0.85</v>
       </c>
-      <c r="M4" s="7">
+      <c r="N4" s="7">
         <v>10.47</v>
       </c>
-      <c r="N4" s="9">
+      <c r="O4" s="9">
         <v>0.1134</v>
       </c>
-      <c r="O4" s="6">
+      <c r="P4" s="6">
         <v>7.4200000000000002E-2</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="Q4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="5"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="5"/>
-      <c r="C5" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="5"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="5"/>
+    </row>
+    <row r="5" spans="2:20" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C5" s="5"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="J5" s="6"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B6" s="5"/>
-      <c r="C6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="5"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -1161,13 +1332,14 @@
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B7" s="5"/>
-      <c r="C7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="13"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1181,13 +1353,12 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B8" s="5"/>
-      <c r="C8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C8" s="5"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1201,14 +1372,15 @@
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B9" s="5"/>
-      <c r="C9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C9" s="5"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -1221,13 +1393,12 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B10" s="5"/>
-      <c r="C10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C10" s="5"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1241,13 +1412,12 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B11" s="5"/>
-      <c r="C11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+    </row>
+    <row r="11" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="5"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1261,33 +1431,45 @@
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B12" s="5"/>
-      <c r="C12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B13" s="5"/>
-      <c r="C13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+    </row>
+    <row r="12" spans="2:20" s="24" customFormat="1" ht="73.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="26">
+        <v>603889</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="27">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="N12" s="25">
+        <v>9.06</v>
+      </c>
+      <c r="O12" s="28">
+        <v>9.64E-2</v>
+      </c>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C13" s="5"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -1301,13 +1483,12 @@
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B14" s="5"/>
-      <c r="C14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C14" s="5"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -1321,14 +1502,19 @@
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="5"/>
-      <c r="C15" s="13" t="s">
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C15" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1341,14 +1527,17 @@
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B16" s="5"/>
-      <c r="C16" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C16" s="5"/>
+      <c r="D16" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -1361,13 +1550,12 @@
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B17" s="5"/>
-      <c r="C17" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C17" s="5"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -1381,13 +1569,12 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B18" s="5"/>
-      <c r="C18" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C18" s="5"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -1401,13 +1588,12 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="5"/>
-      <c r="C19" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C19" s="5"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -1421,13 +1607,12 @@
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B20" s="5"/>
-      <c r="C20" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C20" s="5"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -1441,13 +1626,12 @@
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B21" s="5"/>
-      <c r="C21" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C21" s="5"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -1461,13 +1645,12 @@
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="5"/>
-      <c r="C22" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C22" s="5"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -1481,16 +1664,66 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C23" s="5"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+    </row>
+    <row r="27" spans="3:19" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>持仓</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{E24A8F25-7D32-4724-869B-75791B46CC09}">
+      <formula1>"持仓,候选,清仓"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" location="/company?companyid=600705" display="http://webapi.cninfo.com.cn/ - /company?companyid=600705" xr:uid="{C51753C8-C3BD-41CA-B2EA-9033D360DAB2}"/>
-    <hyperlink ref="L4" r:id="rId2" tooltip="市净率" display="https://eniu.com/gu/sh600705/pb" xr:uid="{34C1B6F5-4EFC-407A-B240-C6C76EA6106A}"/>
-    <hyperlink ref="O4" r:id="rId3" tooltip="ROE" display="https://eniu.com/gu/sh600705/roe" xr:uid="{0C051460-B2CE-4ECE-BFF7-61658600C6C1}"/>
-    <hyperlink ref="D5" r:id="rId4" location="/company?companyid=002169" display="http://webapi.cninfo.com.cn/ - /company?companyid=002169" xr:uid="{2A36B674-A623-4CF4-82C9-E493D3F2203B}"/>
+    <hyperlink ref="E4" r:id="rId1" location="/company?companyid=600705" display="http://webapi.cninfo.com.cn/ - /company?companyid=600705" xr:uid="{C51753C8-C3BD-41CA-B2EA-9033D360DAB2}"/>
+    <hyperlink ref="M4" r:id="rId2" tooltip="市净率" display="https://eniu.com/gu/sh600705/pb" xr:uid="{34C1B6F5-4EFC-407A-B240-C6C76EA6106A}"/>
+    <hyperlink ref="P4" r:id="rId3" tooltip="ROE" display="https://eniu.com/gu/sh600705/roe" xr:uid="{0C051460-B2CE-4ECE-BFF7-61658600C6C1}"/>
+    <hyperlink ref="E6" r:id="rId4" location="/company?companyid=002169" display="http://webapi.cninfo.com.cn/ - /company?companyid=002169" xr:uid="{2A36B674-A623-4CF4-82C9-E493D3F2203B}"/>
+    <hyperlink ref="D12" r:id="rId5" display="https://www.jisilu.cn/data/stock/603889" xr:uid="{17F856DF-0A7C-4FCA-A34E-CD76446CF29F}"/>
+    <hyperlink ref="E12" r:id="rId6" display="https://www.jisilu.cn/data/stock/603889" xr:uid="{A814E661-0678-4F86-AA08-B245FA3D035D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1498,8 +1731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="S11:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView topLeftCell="E11" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1567,7 +1800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625DE84A-7388-4DEB-8BB6-E88F212EABBC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -1577,4 +1810,191 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD90B65-89D4-4735-9F63-CFF6F047220D}">
+  <dimension ref="B1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="17"/>
+    <col min="2" max="2" width="11.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9" style="17"/>
+    <col min="8" max="8" width="17.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="118.125" style="17" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="21">
+        <v>44519</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="17">
+        <v>57.57</v>
+      </c>
+      <c r="F2" s="17">
+        <v>26.1</v>
+      </c>
+      <c r="G2" s="17">
+        <v>3030</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="21">
+        <v>44519</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="17">
+        <v>15.37</v>
+      </c>
+      <c r="F3" s="17">
+        <v>-8.11</v>
+      </c>
+      <c r="G3" s="17">
+        <v>692.5</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="21">
+        <v>44519</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="17">
+        <v>119.75</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="21">
+        <v>44519</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="C6" s="19"/>
+      <c r="I6" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C7" s="19"/>
+    </row>
+    <row r="8" spans="2:9" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="C8" s="19"/>
+      <c r="D8" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="I8" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C9" s="19"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="19"/>
+      <c r="I10" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="19"/>
+      <c r="I11" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="2:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="C13" s="19"/>
+      <c r="I13" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="19"/>
+    </row>
+    <row r="15" spans="2:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="C15" s="19"/>
+      <c r="I15" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C16" s="19"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="19"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="19"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="19"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D8:G8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/stock.xlsx
+++ b/stock.xlsx
@@ -8,17 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A03205D-7CCD-4CCA-A1AA-500B4AF32F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89931420-7A60-462A-9E6B-5EAC9B20CD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="门票" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="PE&lt;10" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="IGBT、chip" sheetId="4" r:id="rId4"/>
     <sheet name="猪" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
+    <sheet name="数字货币" sheetId="7" r:id="rId7"/>
+    <sheet name="大势" sheetId="8" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">门票!$B$3:$Q$24</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
   <si>
     <t xml:space="preserve"> 市盈率(PE)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,21 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0088CB"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3.658%</t>
-    </r>
-  </si>
-  <si>
     <t>市净率(PB)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,12 +269,145 @@
   <si>
     <t>清仓</t>
   </si>
+  <si>
+    <t>以日月股份、吉鑫科技为代表的民营企业在风电铸件领域占据优势并不断发展壮大。由于风电铸件与风电装机增长成正比，按照未来五年预计全球风电装机年均增长速度约为17.2%来看，预计风电铸件每年成长速度也在这个数字，十四五期间风电铸件有望增长121%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车电动化趋势下市场前景巨大
+目前，国内 IGBT 市场规模在 200 亿左右，未来 5 年行业复合增长率在 10-15%。下游工控变频器的核心零部件占 IGBT 市场 25%；汽车零部件占20%；光伏风电的核心零部件占 15%；其他市场分布在家电、轨道交通等领域。
+IGBT 模块一般分为低压、中压和高压，低压一般用于汽车零部件、消费电子；中压一般用于汽车、工业控制、家用电器；高压则用于轨道交通、光伏发电和智能电网等领域。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新 希 望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持仓</t>
+  </si>
+  <si>
+    <t> 3.658%</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>锂电当前景气度大概是下游电池&gt;设备&gt;上游锂矿&gt;中游材料</t>
+  </si>
+  <si>
+    <r>
+      <t>新能源+科技，新能源+科技都集中在创业板科创板，所以，一定要咬定青山不放松，坚定持有这些确定性红利的板块，做时间的朋友，必定会获得超额收益。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>因为现在是机构化抱团时代，是强者恒强，操作要去弱留强。对于没有时代红利加持的行业、板块要坚决抛弃。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>新能源牛市持续带来赚钱效应，相比光伏和锂电池此前积累大量涨幅，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特高压和智能电网目前具备补涨的空间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，有望成为新能源的下一个风口。</t>
+    </r>
+  </si>
+  <si>
+    <t>如2017-2018的金融消费蓝筹、2018-2019的猪周期、2020-2021的核心资产，今年来看，碳中和新能源是跨年的最优选。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为游资参与的题材股都是没有估值优势的，</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,33 +473,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF33353C"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF0088CB"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF4D4D4D"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -416,8 +519,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF333333"/>
-      <name val="微软雅黑"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Microsoft YaHei UI"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -447,7 +579,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -470,75 +602,80 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -559,6 +696,77 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+    <mruColors>
+      <color rgb="FFFF3399"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -882,16 +1090,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>653143</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>208238</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>36647</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>181023</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>63862</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -914,8 +1122,375 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="2533650"/>
-          <a:ext cx="10495238" cy="11619047"/>
+          <a:off x="11538857" y="2149929"/>
+          <a:ext cx="10413595" cy="11357790"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>598715</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>541684</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3171AF3-CC19-4C0D-A7CF-7B52CB7692BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1279072" y="4939392"/>
+          <a:ext cx="6746541" cy="4925787"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>639536</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1353</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F7D18F4-1FA7-4DF6-8174-80B7079F0B54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1319893" y="9865179"/>
+          <a:ext cx="5485031" cy="3116036"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>680356</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>547452</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E6F984-305B-4347-8BA6-D77B35A32AF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6803570" y="13620749"/>
+          <a:ext cx="5990311" cy="2816679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>494571</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>46809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F713D1-67BB-4677-92AA-D99C5C30FABA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="0"/>
+          <a:ext cx="5228496" cy="5657034"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>147451</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85117</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{940AFF20-06A3-473E-80CD-4A3960612BD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5905500" y="409575"/>
+          <a:ext cx="4528951" cy="3837967"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>157431</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>504001</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>8927</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C518F8A4-732D-4C5F-A158-9A52C6FCC81A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10315574" y="700356"/>
+          <a:ext cx="5276027" cy="3832946"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>303906</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133046</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2483E270-7A51-4C6E-8F71-DFEDD5352846}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4048125" y="1371600"/>
+          <a:ext cx="7152381" cy="2428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1694908</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85376</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC3F9217-B8C7-43BC-8C18-0CDFABE80C8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="1085850"/>
+          <a:ext cx="4333333" cy="2790476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1190,157 +1765,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEE8F47-2239-41AB-A04C-31245F126C81}">
-  <dimension ref="B3:T28"/>
+  <dimension ref="A3:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="9" style="14"/>
+    <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
     <col min="14" max="14" width="10.125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.75" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="63.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C3" s="8" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T3" s="6"/>
+    </row>
+    <row r="4" spans="1:20" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="26">
+        <v>1</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="28">
+        <v>600705</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27">
+        <v>0.85</v>
+      </c>
+      <c r="N4" s="27">
+        <v>10.47</v>
+      </c>
+      <c r="O4" s="30">
+        <v>0.1134</v>
+      </c>
+      <c r="P4" s="29">
+        <v>7.4200000000000002E-2</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4" s="29"/>
+      <c r="S4" s="27"/>
+    </row>
+    <row r="5" spans="1:20" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="28"/>
+      <c r="E5" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="27"/>
+    </row>
+    <row r="6" spans="1:20" s="18" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A6"/>
+      <c r="B6" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="8" t="s">
+      <c r="D6" s="9">
+        <v>603889</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="N6" s="19">
+        <v>9.06</v>
+      </c>
+      <c r="O6" s="20">
+        <v>9.64E-2</v>
+      </c>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B7" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="T3" s="8"/>
-    </row>
-    <row r="4" spans="2:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="13">
-        <v>600705</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="N4" s="7">
-        <v>10.47</v>
-      </c>
-      <c r="O4" s="9">
-        <v>0.1134</v>
-      </c>
-      <c r="P4" s="6">
-        <v>7.4200000000000002E-2</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="R4" s="10"/>
-      <c r="S4" s="5"/>
-    </row>
-    <row r="5" spans="2:20" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C5" s="5"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="5"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C6" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1356,9 +1959,14 @@
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C8" s="5"/>
-      <c r="D8" s="13"/>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B8" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="9"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1375,12 +1983,13 @@
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B9" s="24" t="s">
+        <v>62</v>
+      </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -1396,10 +2005,12 @@
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B10" s="24" t="s">
+        <v>63</v>
+      </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="5"/>
+      <c r="D10" s="9"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -1415,9 +2026,12 @@
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
     </row>
-    <row r="11" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="57" x14ac:dyDescent="0.2">
+      <c r="B11" s="24" t="s">
+        <v>64</v>
+      </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="13"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1432,63 +2046,43 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-    </row>
-    <row r="12" spans="2:20" s="24" customFormat="1" ht="73.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="26">
-        <v>603889</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="27">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="N12" s="25">
-        <v>9.06</v>
-      </c>
-      <c r="O12" s="28">
-        <v>9.64E-2</v>
-      </c>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C13" s="5"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="S11" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B12" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B13" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B14" s="24" t="s">
+        <v>67</v>
+      </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -1505,16 +2099,13 @@
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C15" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>34</v>
-      </c>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B15" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1530,13 +2121,18 @@
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C16" s="5"/>
-      <c r="D16" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>38</v>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B16" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -1553,10 +2149,17 @@
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
     </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B17" s="24" t="s">
+        <v>70</v>
+      </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -1572,9 +2175,12 @@
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B18" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="13"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -1589,11 +2195,16 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S18" s="32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B19" s="24" t="s">
+        <v>72</v>
+      </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="13"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -1610,9 +2221,12 @@
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:19" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="B20" s="24" t="s">
+        <v>73</v>
+      </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="13"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -1627,11 +2241,16 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S20" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B21" s="24" t="s">
+        <v>74</v>
+      </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="13"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
@@ -1648,9 +2267,12 @@
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B22" s="24" t="s">
+        <v>75</v>
+      </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="13"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -1667,9 +2289,12 @@
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B23" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="13"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -1686,31 +2311,59 @@
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
     </row>
-    <row r="27" spans="3:19" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="C27">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B24" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+    </row>
+    <row r="29" spans="2:19" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="C29">
         <v>1</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D29" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="3:19" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>26</v>
+    <row r="31" spans="2:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D31" s="34" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B3:Q24" xr:uid="{ABEE8F47-2239-41AB-A04C-31245F126C81}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C14:C1048576 C1:C12">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>持仓</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{E24A8F25-7D32-4724-869B-75791B46CC09}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C1048576 C1:C12" xr:uid="{E24A8F25-7D32-4724-869B-75791B46CC09}">
       <formula1>"持仓,候选,清仓"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1718,9 +2371,9 @@
     <hyperlink ref="E4" r:id="rId1" location="/company?companyid=600705" display="http://webapi.cninfo.com.cn/ - /company?companyid=600705" xr:uid="{C51753C8-C3BD-41CA-B2EA-9033D360DAB2}"/>
     <hyperlink ref="M4" r:id="rId2" tooltip="市净率" display="https://eniu.com/gu/sh600705/pb" xr:uid="{34C1B6F5-4EFC-407A-B240-C6C76EA6106A}"/>
     <hyperlink ref="P4" r:id="rId3" tooltip="ROE" display="https://eniu.com/gu/sh600705/roe" xr:uid="{0C051460-B2CE-4ECE-BFF7-61658600C6C1}"/>
-    <hyperlink ref="E6" r:id="rId4" location="/company?companyid=002169" display="http://webapi.cninfo.com.cn/ - /company?companyid=002169" xr:uid="{2A36B674-A623-4CF4-82C9-E493D3F2203B}"/>
-    <hyperlink ref="D12" r:id="rId5" display="https://www.jisilu.cn/data/stock/603889" xr:uid="{17F856DF-0A7C-4FCA-A34E-CD76446CF29F}"/>
-    <hyperlink ref="E12" r:id="rId6" display="https://www.jisilu.cn/data/stock/603889" xr:uid="{A814E661-0678-4F86-AA08-B245FA3D035D}"/>
+    <hyperlink ref="E7" r:id="rId4" location="/company?companyid=002169" display="http://webapi.cninfo.com.cn/ - /company?companyid=002169" xr:uid="{2A36B674-A623-4CF4-82C9-E493D3F2203B}"/>
+    <hyperlink ref="D6" r:id="rId5" display="https://www.jisilu.cn/data/stock/603889" xr:uid="{17F856DF-0A7C-4FCA-A34E-CD76446CF29F}"/>
+    <hyperlink ref="E6" r:id="rId6" display="https://www.jisilu.cn/data/stock/603889" xr:uid="{A814E661-0678-4F86-AA08-B245FA3D035D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -1731,7 +2384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="S11:S37"/>
   <sheetViews>
-    <sheetView topLeftCell="E11" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -1744,7 +2397,7 @@
     </row>
     <row r="12" spans="19:19" ht="21" x14ac:dyDescent="0.4">
       <c r="S12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="19:19" ht="20.25" x14ac:dyDescent="0.35">
@@ -1784,7 +2437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A325E9-2EA5-4DC8-8750-89F7A01F1F26}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
@@ -1800,8 +2453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625DE84A-7388-4DEB-8BB6-E88F212EABBC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A86" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V93" sqref="V93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1817,177 +2470,177 @@
   <dimension ref="B1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="17"/>
-    <col min="2" max="2" width="11.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9" style="17"/>
-    <col min="8" max="8" width="17.375" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="118.125" style="17" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="9" style="13"/>
+    <col min="2" max="2" width="11.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9" style="13"/>
+    <col min="8" max="8" width="17.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="118.125" style="13" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2" s="17">
+        <v>44519</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="13">
+        <v>57.57</v>
+      </c>
+      <c r="F2" s="13">
+        <v>26.1</v>
+      </c>
+      <c r="G2" s="13">
+        <v>3030</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="17">
+        <v>44519</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="13">
+        <v>15.37</v>
+      </c>
+      <c r="F3" s="13">
+        <v>-8.11</v>
+      </c>
+      <c r="G3" s="13">
+        <v>692.5</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="17">
+        <v>44519</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="13">
+        <v>119.75</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="17" t="s">
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="17">
+        <v>44519</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="C6" s="15"/>
+      <c r="I6" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C7" s="15"/>
+    </row>
+    <row r="8" spans="2:9" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="C8" s="15"/>
+      <c r="D8" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="I8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="21">
-        <v>44519</v>
-      </c>
-      <c r="C2" s="19" t="s">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C9" s="15"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="15"/>
+      <c r="I10" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="15"/>
+      <c r="I11" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="2:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="C13" s="15"/>
+      <c r="I13" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" spans="2:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="C15" s="15"/>
+      <c r="I15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="17">
-        <v>57.57</v>
-      </c>
-      <c r="F2" s="17">
-        <v>26.1</v>
-      </c>
-      <c r="G2" s="17">
-        <v>3030</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B3" s="21">
-        <v>44519</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="17">
-        <v>15.37</v>
-      </c>
-      <c r="F3" s="17">
-        <v>-8.11</v>
-      </c>
-      <c r="G3" s="17">
-        <v>692.5</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="21">
-        <v>44519</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="17">
-        <v>119.75</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="21">
-        <v>44519</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="34.5" x14ac:dyDescent="0.2">
-      <c r="C6" s="19"/>
-      <c r="I6" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C7" s="19"/>
-    </row>
-    <row r="8" spans="2:9" ht="34.5" x14ac:dyDescent="0.2">
-      <c r="C8" s="19"/>
-      <c r="D8" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="I8" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C9" s="19"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C10" s="19"/>
-      <c r="I10" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C11" s="19"/>
-      <c r="I11" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C12" s="19"/>
-    </row>
-    <row r="13" spans="2:9" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="C13" s="19"/>
-      <c r="I13" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C14" s="19"/>
-    </row>
-    <row r="15" spans="2:9" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="C15" s="19"/>
-      <c r="I15" s="16" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C16" s="19"/>
+      <c r="C16" s="15"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="19"/>
+      <c r="C17" s="15"/>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="19"/>
+      <c r="C18" s="15"/>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="19"/>
+      <c r="C19" s="15"/>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="19"/>
+      <c r="C20" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1997,4 +2650,78 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D659C2-CE5D-4A79-9045-D321BE10808B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E52B28-0AF9-4383-9C00-6C1304B1281E}">
+  <dimension ref="B1"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="103.5" x14ac:dyDescent="0.3">
+      <c r="B1" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9C8A66-C282-4E99-8EA8-891CBD6B2B84}">
+  <dimension ref="B1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="35.25" customWidth="1"/>
+    <col min="3" max="3" width="32.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="70.5" x14ac:dyDescent="0.3">
+      <c r="B1" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="36"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/stock.xlsx
+++ b/stock.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFC578C-5258-4D23-AECB-C466B71AE0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1389DD-D5B1-4B8C-A9A2-9A1A87940DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="85">
   <si>
     <t xml:space="preserve"> 市盈率(PE)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,9 +275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>持仓</t>
-  </si>
-  <si>
     <t> 3.658%</t>
   </si>
   <si>
@@ -375,12 +372,26 @@
   <si>
     <t>具有国资背景的云计算基础设施供应商将受益，例如国务院国资委旗下的美利云、北京国资委旗下的铜牛信息等，更有望参与到当地国资云的建设和运营，带动业绩增长。</t>
   </si>
+  <si>
+    <t>总的来说，当前生猪行业处在“猪价下跌——生猪去产能——猪价回升——猪企盈利回升”中的“生猪加快去产能”、“
+猪价有望迎来回升”的阶段，预计今年年中猪价将迎来拐点，后续生猪企业有望受益于猪价回暖，实现盈利回升。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果后续字节/抖音赴港上市顺利推进，一方面直接利好抖音产业链，国内蓝色光标、
+广博股份、省广集团、中文在线、星期六等抖音系电商、游戏公司以及合作方均有望受益于抖音生态系统的成长；另一方面利好平台经济，因为抖音成功上市将再次体现政策对平台经济监管的转向。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不过美国通胀居高不下也有好的一面，就是会推动美国考虑降低对我国的关税（关税提升物价、加剧通胀），美国目前已经在重新审核对我国的部分关税，一旦降低，利好部分出口产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,6 +537,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFD92142"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -583,7 +601,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -647,17 +665,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -857,22 +891,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>322589</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>628137</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>8463</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7">
+        <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25B618D7-60E9-499B-ABB7-BA85B82842A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60CDEA41-568A-953B-8AA5-3911009F1427}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -888,8 +922,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4038601" y="866775"/>
-          <a:ext cx="3827788" cy="3305175"/>
+          <a:off x="3971925" y="0"/>
+          <a:ext cx="2828412" cy="6790263"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -902,55 +936,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>409368</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>112380</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>149276</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A58DE74-E167-46C8-BD0C-72B715769D47}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1780968" y="0"/>
-          <a:ext cx="5875212" cy="9559976"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1131,7 +1116,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1268,7 +1253,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1582,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEE8F47-2239-41AB-A04C-31245F126C81}">
   <dimension ref="A3:T31"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1601,7 +1586,9 @@
       <c r="C3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
@@ -1680,20 +1667,20 @@
         <v>7.4200000000000002E-2</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R4" s="29"/>
       <c r="S4" s="27"/>
     </row>
     <row r="5" spans="1:20" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B5" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D5" s="28"/>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="27"/>
@@ -1714,7 +1701,7 @@
     <row r="6" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="9"/>
@@ -1736,7 +1723,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>50</v>
@@ -1762,7 +1749,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>50</v>
@@ -1786,7 +1773,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="9"/>
@@ -1808,7 +1795,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
@@ -1829,7 +1816,7 @@
     </row>
     <row r="11" spans="1:20" ht="57" x14ac:dyDescent="0.2">
       <c r="B11" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="9"/>
@@ -1853,7 +1840,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B12" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="9"/>
@@ -1875,12 +1862,12 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B13" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="9"/>
@@ -1902,7 +1889,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="9"/>
@@ -1924,7 +1911,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>48</v>
@@ -1952,7 +1939,7 @@
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="15" t="s">
@@ -1978,7 +1965,7 @@
     </row>
     <row r="18" spans="2:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B18" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="9"/>
@@ -1997,12 +1984,12 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="9"/>
@@ -2024,7 +2011,7 @@
     </row>
     <row r="20" spans="2:19" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="9"/>
@@ -2048,7 +2035,7 @@
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="9"/>
@@ -2070,7 +2057,7 @@
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="9"/>
@@ -2092,7 +2079,7 @@
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="9"/>
@@ -2114,7 +2101,7 @@
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="9"/>
@@ -2152,13 +2139,18 @@
     </row>
     <row r="31" spans="2:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D31" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B3:Q24" xr:uid="{ABEE8F47-2239-41AB-A04C-31245F126C81}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C14:C1048576 C1:C12">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>持仓</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>持仓</formula>
     </cfRule>
@@ -2183,8 +2175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="S11:S37"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2236,7 +2228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A325E9-2EA5-4DC8-8750-89F7A01F1F26}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
@@ -2244,7 +2236,6 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2252,7 +2243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625DE84A-7388-4DEB-8BB6-E88F212EABBC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A51" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="V93" sqref="V93"/>
     </sheetView>
   </sheetViews>
@@ -2269,7 +2260,7 @@
   <dimension ref="B1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2383,12 +2374,12 @@
     </row>
     <row r="8" spans="2:9" ht="34.5" x14ac:dyDescent="0.2">
       <c r="C8" s="15"/>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
       <c r="I8" s="12" t="s">
         <v>41</v>
       </c>
@@ -2418,27 +2409,76 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="C14" s="15"/>
+      <c r="B14" s="17">
+        <v>44688</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="13">
+        <v>51.4</v>
+      </c>
+      <c r="G14" s="13">
+        <v>2736</v>
+      </c>
     </row>
     <row r="15" spans="2:9" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="C15" s="15"/>
+      <c r="B15" s="17">
+        <v>44689</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="13">
+        <v>13.77</v>
+      </c>
+      <c r="G15" s="13">
+        <v>620</v>
+      </c>
       <c r="I15" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="17">
+        <v>44690</v>
+      </c>
       <c r="C16" s="15"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="13">
+        <v>113.9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="17">
+        <v>44691</v>
+      </c>
       <c r="C17" s="15"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="13">
+        <v>119.8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C18" s="15"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" ht="34.5" x14ac:dyDescent="0.3">
       <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="I19" s="38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C20" s="15"/>
     </row>
   </sheetData>
@@ -2482,7 +2522,7 @@
   <sheetData>
     <row r="1" spans="2:2" ht="103.5" x14ac:dyDescent="0.3">
       <c r="B1" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2495,10 +2535,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9C8A66-C282-4E99-8EA8-891CBD6B2B84}">
-  <dimension ref="B1:E8"/>
+  <dimension ref="B1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2513,23 +2553,33 @@
     </row>
     <row r="3" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B3" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E5" s="35"/>
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="32" t="s">
         <v>80</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B8" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="155.25" x14ac:dyDescent="0.3">
+      <c r="B11" s="39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B12" s="32" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1389DD-D5B1-4B8C-A9A2-9A1A87940DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141732CC-A827-464B-ACC1-A8ABC4D48B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="门票" sheetId="3" r:id="rId1"/>
@@ -847,15 +847,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>434303</xdr:colOff>
+      <xdr:colOff>624803</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -878,7 +878,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="542926"/>
+          <a:off x="876300" y="571501"/>
           <a:ext cx="3177503" cy="5753100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -924,6 +924,50 @@
         <a:xfrm>
           <a:off x="3971925" y="0"/>
           <a:ext cx="2828412" cy="6790263"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>504441</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC39EBE-1C74-B48A-D82A-F276AA76C6B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6810375" y="0"/>
+          <a:ext cx="3295266" cy="6819900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1567,7 +1611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEE8F47-2239-41AB-A04C-31245F126C81}">
   <dimension ref="A3:T31"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -2176,7 +2220,7 @@
   <dimension ref="S11:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2537,8 +2581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9C8A66-C282-4E99-8EA8-891CBD6B2B84}">
   <dimension ref="B1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141732CC-A827-464B-ACC1-A8ABC4D48B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540F26FC-3B84-40BF-9D89-59BBE93636D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="门票" sheetId="3" r:id="rId1"/>
@@ -705,6 +705,72 @@
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
       <color rgb="FFFF3399"/>
     </mruColors>
@@ -968,6 +1034,50 @@
         <a:xfrm>
           <a:off x="6810375" y="0"/>
           <a:ext cx="3295266" cy="6819900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>491114</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>637662</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>37038</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A84D93D1-7342-1FDA-BDA5-DFCCCCCE2627}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10092314" y="85725"/>
+          <a:ext cx="2889748" cy="5980638"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1346,6 +1456,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1913950</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85171</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40C09207-7CA8-7C03-487F-508CA1CC8903}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="4886325"/>
+          <a:ext cx="4600000" cy="4428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1354,7 +1513,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1611,7 +1770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEE8F47-2239-41AB-A04C-31245F126C81}">
   <dimension ref="A3:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -2219,8 +2378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="S11:S37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2581,8 +2740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9C8A66-C282-4E99-8EA8-891CBD6B2B84}">
   <dimension ref="B1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2630,5 +2789,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/stock.xlsx
+++ b/stock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540F26FC-3B84-40BF-9D89-59BBE93636D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A82B99-F1EA-4529-BC99-CCC041F54E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="6060" yWindow="3480" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="门票" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="PE&lt;10" sheetId="2" r:id="rId3"/>
     <sheet name="IGBT、chip" sheetId="4" r:id="rId4"/>
     <sheet name="猪" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
+    <sheet name="poe" sheetId="6" r:id="rId6"/>
     <sheet name="数字货币" sheetId="7" r:id="rId7"/>
     <sheet name="大势" sheetId="8" r:id="rId8"/>
   </sheets>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
   <si>
     <t xml:space="preserve"> 市盈率(PE)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,23 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>智光电气</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <t>格力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -386,12 +369,38 @@
     <t>不过美国通胀居高不下也有好的一面，就是会推动美国考虑降低对我国的关税（关税提升物价、加剧通胀），美国目前已经在重新审核对我国的部分关税，一旦降低，利好部分出口产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>受益的方向一是生产POE粒子的公司以及再上游相关材料和设备，
+因为POE胶膜紧缺本质上缺的是上游POE粒子。POE粒子目前主要由海外公司垄断，不过目前已经有国内公司突破了核心技术，部分公司这几年就要扩产。另外，再上游的α烯烃等核心材料也是值得留意的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二是POE胶膜公司，因为POE粒子缺导致POE胶膜缺，
+所以能够与供应商签订长期订单的POE胶膜公司将受益，或者说先释放产能的先受益。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粒子国产化：万华/卫星/盛虹/诚志/岳阳兴长（化工）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万华化学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫星化学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方盛虹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,15 +471,6 @@
       <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -601,7 +601,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -613,20 +613,20 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -645,18 +645,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -665,15 +665,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -705,72 +708,6 @@
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FFFF3399"/>
     </mruColors>
@@ -1274,23 +1211,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>494571</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>46809</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>494498</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
+        <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F713D1-67BB-4677-92AA-D99C5C30FABA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB262DC3-8027-0124-3C04-F2E431046859}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1306,8 +1243,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="752475" y="0"/>
-          <a:ext cx="5228496" cy="5657034"/>
+          <a:off x="7286625" y="561975"/>
+          <a:ext cx="6419048" cy="1523810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1318,23 +1255,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>147451</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>85117</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>675542</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47168</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
+        <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{940AFF20-06A3-473E-80CD-4A3960612BD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B535C7A-685A-42F7-CBAD-FDA408771656}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,52 +1287,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5905500" y="409575"/>
-          <a:ext cx="4528951" cy="3837967"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>157431</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>504001</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>8927</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C518F8A4-732D-4C5F-A158-9A52C6FCC81A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10315574" y="700356"/>
-          <a:ext cx="5276027" cy="3832946"/>
+          <a:off x="7334250" y="2181225"/>
+          <a:ext cx="5866667" cy="3657143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1513,7 +1406,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1771,7 +1664,7 @@
   <dimension ref="A3:T31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1787,10 +1680,10 @@
   <sheetData>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>9</v>
@@ -1842,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="28">
         <v>600705</v>
@@ -1870,21 +1763,21 @@
         <v>7.4200000000000002E-2</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R4" s="29"/>
       <c r="S4" s="27"/>
     </row>
     <row r="5" spans="1:20" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B5" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
@@ -1904,7 +1797,7 @@
     <row r="6" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="9"/>
@@ -1926,15 +1819,11 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B7" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>50</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="E7" s="7"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1952,10 +1841,10 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="5"/>
@@ -1976,7 +1865,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="9"/>
@@ -1998,7 +1887,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
@@ -2019,11 +1908,13 @@
     </row>
     <row r="11" spans="1:20" ht="57" x14ac:dyDescent="0.2">
       <c r="B11" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -2038,16 +1929,18 @@
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B12" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -2065,12 +1958,15 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B13" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="E13" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="9"/>
@@ -2092,7 +1988,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B15" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="9"/>
@@ -2114,16 +2010,16 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B16" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -2142,14 +2038,14 @@
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -2168,7 +2064,7 @@
     </row>
     <row r="18" spans="2:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B18" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="9"/>
@@ -2187,12 +2083,12 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="9"/>
@@ -2214,7 +2110,7 @@
     </row>
     <row r="20" spans="2:19" ht="99.75" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="9"/>
@@ -2233,12 +2129,12 @@
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="9"/>
@@ -2260,7 +2156,7 @@
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="9"/>
@@ -2282,7 +2178,7 @@
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="9"/>
@@ -2304,7 +2200,7 @@
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="9"/>
@@ -2329,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="2:19" ht="18.75" x14ac:dyDescent="0.35">
@@ -2337,12 +2233,12 @@
         <v>2</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="2:19" ht="17.25" x14ac:dyDescent="0.3">
       <c r="D31" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2367,10 +2263,9 @@
     <hyperlink ref="E4" r:id="rId1" location="/company?companyid=600705" display="http://webapi.cninfo.com.cn/ - /company?companyid=600705" xr:uid="{C51753C8-C3BD-41CA-B2EA-9033D360DAB2}"/>
     <hyperlink ref="M4" r:id="rId2" tooltip="市净率" display="https://eniu.com/gu/sh600705/pb" xr:uid="{34C1B6F5-4EFC-407A-B240-C6C76EA6106A}"/>
     <hyperlink ref="P4" r:id="rId3" tooltip="ROE" display="https://eniu.com/gu/sh600705/roe" xr:uid="{0C051460-B2CE-4ECE-BFF7-61658600C6C1}"/>
-    <hyperlink ref="E7" r:id="rId4" location="/company?companyid=002169" display="http://webapi.cninfo.com.cn/ - /company?companyid=002169" xr:uid="{2A36B674-A623-4CF4-82C9-E493D3F2203B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2378,8 +2273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="S11:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2446,7 +2341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625DE84A-7388-4DEB-8BB6-E88F212EABBC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="V93" sqref="V93"/>
     </sheetView>
   </sheetViews>
@@ -2478,22 +2373,22 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
@@ -2501,10 +2396,10 @@
         <v>44519</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="13">
         <v>57.57</v>
@@ -2516,7 +2411,7 @@
         <v>3030</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
@@ -2524,10 +2419,10 @@
         <v>44519</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="13">
         <v>15.37</v>
@@ -2539,7 +2434,7 @@
         <v>692.5</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
@@ -2548,13 +2443,13 @@
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="13">
         <v>119.75</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
@@ -2563,13 +2458,13 @@
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="34.5" x14ac:dyDescent="0.2">
       <c r="C6" s="15"/>
       <c r="I6" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
@@ -2578,13 +2473,13 @@
     <row r="8" spans="2:9" ht="34.5" x14ac:dyDescent="0.2">
       <c r="C8" s="15"/>
       <c r="D8" s="40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="40"/>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="I8" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
@@ -2593,13 +2488,13 @@
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C10" s="15"/>
       <c r="I10" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C11" s="15"/>
       <c r="I11" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
@@ -2608,7 +2503,7 @@
     <row r="13" spans="2:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="C13" s="15"/>
       <c r="I13" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
@@ -2616,10 +2511,10 @@
         <v>44688</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="13">
         <v>51.4</v>
@@ -2633,10 +2528,10 @@
         <v>44689</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="13">
         <v>13.77</v>
@@ -2645,7 +2540,7 @@
         <v>620</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
@@ -2654,7 +2549,7 @@
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" s="13">
         <v>113.9</v>
@@ -2666,7 +2561,7 @@
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="13">
         <v>119.8</v>
@@ -2678,7 +2573,7 @@
     <row r="19" spans="2:9" ht="34.5" x14ac:dyDescent="0.3">
       <c r="C19" s="15"/>
       <c r="I19" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
@@ -2696,14 +2591,33 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D659C2-CE5D-4A79-9045-D321BE10808B}">
-  <dimension ref="A1"/>
+  <dimension ref="C4:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="65.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="C4" s="41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C5" s="41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2715,7 +2629,7 @@
   <dimension ref="B1"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2725,7 +2639,7 @@
   <sheetData>
     <row r="1" spans="2:2" ht="103.5" x14ac:dyDescent="0.3">
       <c r="B1" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2740,8 +2654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9C8A66-C282-4E99-8EA8-891CBD6B2B84}">
   <dimension ref="B1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2756,7 +2670,7 @@
     </row>
     <row r="3" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B3" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
@@ -2764,25 +2678,25 @@
     </row>
     <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B6" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="32" t="s">
         <v>79</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B8" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="155.25" x14ac:dyDescent="0.3">
       <c r="B11" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B12" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/stock.xlsx
+++ b/stock.xlsx
@@ -1,48 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A82B99-F1EA-4529-BC99-CCC041F54E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3221C0FC-6296-496A-A6F0-0A806F4BA771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6060" yWindow="3480" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="门票" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="PE&lt;10" sheetId="2" r:id="rId3"/>
-    <sheet name="IGBT、chip" sheetId="4" r:id="rId4"/>
-    <sheet name="猪" sheetId="5" r:id="rId5"/>
-    <sheet name="poe" sheetId="6" r:id="rId6"/>
-    <sheet name="数字货币" sheetId="7" r:id="rId7"/>
-    <sheet name="大势" sheetId="8" r:id="rId8"/>
+    <sheet name="plan" sheetId="11" r:id="rId2"/>
+    <sheet name="ROE" sheetId="1" r:id="rId3"/>
+    <sheet name="DYR" sheetId="9" r:id="rId4"/>
+    <sheet name="PE" sheetId="2" r:id="rId5"/>
+    <sheet name="PB" sheetId="10" r:id="rId6"/>
+    <sheet name="IGBT、chip" sheetId="4" r:id="rId7"/>
+    <sheet name="猪" sheetId="5" r:id="rId8"/>
+    <sheet name="poe" sheetId="6" r:id="rId9"/>
+    <sheet name="数字货币" sheetId="7" r:id="rId10"/>
+    <sheet name="大势" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">门票!$B$3:$Q$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">门票!$B$3:$T$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="104">
   <si>
     <t xml:space="preserve"> 市盈率(PE)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5年平均ROE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>市净率(PB)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,9 +248,6 @@
   <si>
     <t>新 希 望</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t> 3.658%</t>
   </si>
   <si>
     <t>2</t>
@@ -395,12 +384,191 @@
     <t>东方盛虹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>二、基于股息率选股的“狗股理论”
+“狗股理论”英文名称是Dogs of the Dow Theory，直译就是“道琼斯指数內的狗股理论”，是美国基金经理迈克尔·奥希金斯于1991年提出的一种投资策略。
+所谓的“狗股”就是高股息率的股票，策略比较简单，每年年初从道指找出10只股息率最高的股票，平均资金买入，一年后再找出新的十大高息股，卖出不在名单的，换成新入榜单股票。每年只需要用5分钟进行选股，便可稳定获取超越大盘的回报，因此狗股理论又被称为懒人投资策略。
+通常将类似策略称为“红利策略”，跟踪该指数的基金被称为“红利基金”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>市净率（PB，price to book value)=每股股价/每股净资产=P/BV=股票市值/公司净资产。
+一般来说</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>市净率较低的股票，投资价值较高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，相反，则投资价值较低，但在判断投资价值时还要考虑当时的市场环境以及公司经营情况、盈利能力等因素。
+市净率估值优点在于净资产比净利润更稳定，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>市盈率对微利或者亏损的公司而言并不适用，但是微利或者亏损的公司仍然可以使用市净率进行评估，除非公司资不抵债</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>净资产收益率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="MingLiU-ExtB"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ROE(Rate of Return on Common Stockholders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>’</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="仿宋_GB2312"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Equity)=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>净利润÷净资产，
+是净利润与净资产的比率，又称股东权益报酬率，该指标是衡量企业盈利能力的重要指标，也是衡量股东资金使用效率的重要指标。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、ROE长期很高的不一定是非常优秀的公司，但是ROE长期低的一定不是优秀的公司。用ROE指标可以排除掉大部分不值得耗费精力关注的平庸企业。
+2、净资产收益率这个指标也应该连续看长期5～10年以上，短期的一两年没有意义。
+3、初选企业的时候把过去连续5～10年平均ROE低于15%的企业全部排除掉，只关注那些长期平均ROE＞15%的企业。
+4、优选长期平均ROE＞20%的公司。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“低市净率(PB)高净资产收益率(ROE)策略”只需要每月月底完成以下几步：
+（1）排除ST股，排除PE≤0，排除PB≤0的股票，排除PB≥1.0的股票（1.0是低估阈值）。
+（2）选出全市场满足上述条件的所有股票，按ROE从高到低的顺序排序，选择排名第1位的股票，采用公式
+R=ROE+（1-PB）*DYR
+计算其理论收益率R，若R≥10%，则买入；若R＜10%，则依次选择排名下一位的股票，直至理论收益率满足上述条件，方可买入。
+其中：
+ROE为净资产收益率，可根据ROE=PB/PE计算，
+PB为市净率
+PE为市盈率
+DYR为股息率
+（3）卖出条件：
+卖出仍以PB作为主要判断指标，且辅以持仓时间作为控制条件，根据公式PB=P/B，又可分为几种情况：
+1）盈利状态，极值回撤法卖出：最高点回撤超过20%且盈利超过50%；
+2）亏损状态，若持仓时间超过一年，卖出止损；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE&gt;0;PB&gt;0;PB&lt;1; ROE+（1-PB）*股息率&gt;=10；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业分类</t>
+  </si>
+  <si>
+    <t>行业分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每股净资产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每股净利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每股红利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联泓新科(SZ:003022)</t>
+  </si>
+  <si>
+    <t>公司主要产品为EVA光伏胶膜料</t>
+  </si>
+  <si>
+    <t>电重卡产业链涉及多方，包括设备商、整车企业、电池企业、运营商等。</t>
+  </si>
+  <si>
+    <t>其产业链上游包括汽车三电系统（如动力电池企业宁德时代、亿纬锂能；电机配套企业特百佳、绿控传动等）、汽车其他零部件（如热管系统的柯诺威）、换电设备（如许继电器、玖行）等；中游主要包括整车厂及换电服务商（如汉马科技、徐工重卡等）；下游包括物流运输公司、钢厂、港口矿区等。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,13 +677,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Microsoft YaHei UI"/>
@@ -544,8 +705,71 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="仿宋_GB2312"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="MingLiU-ExtB"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="仿宋_GB2312"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF33353C"/>
+      <name val="PingFangSC-Semibold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF33353C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFDD2200"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF574D3A"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -566,6 +790,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,7 +831,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -632,7 +862,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -652,11 +881,9 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="14" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -665,18 +892,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -684,7 +939,17 @@
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -724,6 +989,99 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>274555</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66011</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03455491-D565-FD2A-E6B4-6547AC5DADBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1276350" y="1809750"/>
+          <a:ext cx="13361905" cy="5314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3067050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>417378</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>18434</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8FC1F5C-1683-7D7D-C48B-E9C6A433449E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5124450" y="1428750"/>
+          <a:ext cx="13771428" cy="4923809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -849,23 +1207,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>624803</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266187</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>17988</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
+        <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8404A36D-C4B6-48EC-BED2-4E29B9F7B7F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60CDEA41-568A-953B-8AA5-3911009F1427}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -881,8 +1239,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="876300" y="571501"/>
-          <a:ext cx="3177503" cy="5753100"/>
+          <a:off x="11610975" y="228600"/>
+          <a:ext cx="2828412" cy="6790263"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -893,23 +1251,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>628137</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>8463</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123441</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
+        <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60CDEA41-568A-953B-8AA5-3911009F1427}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC39EBE-1C74-B48A-D82A-F276AA76C6B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -925,8 +1283,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3971925" y="0"/>
-          <a:ext cx="2828412" cy="6790263"/>
+          <a:off x="4829175" y="28575"/>
+          <a:ext cx="3295266" cy="6819900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -937,23 +1295,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>519689</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>504441</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>666237</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>103713</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5">
+        <xdr:cNvPr id="7" name="图片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC39EBE-1C74-B48A-D82A-F276AA76C6B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A84D93D1-7342-1FDA-BDA5-DFCCCCCE2627}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -969,51 +1327,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6810375" y="0"/>
-          <a:ext cx="3295266" cy="6819900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>491114</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>637662</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>37038</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A84D93D1-7342-1FDA-BDA5-DFCCCCCE2627}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10092314" y="85725"/>
+          <a:off x="8520689" y="219075"/>
           <a:ext cx="2889748" cy="5980638"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1026,7 +1340,183 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1DE6F22-2F74-47BC-A4C9-6613D6718E8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15544800" y="6029325"/>
+          <a:ext cx="3543300" cy="1152525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2284B680-A503-4B50-8FCF-F7B7BBAECFF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15544800" y="7658100"/>
+          <a:ext cx="4095750" cy="1152525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>144278</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87E36577-55E4-B799-8982-6A1A80A53615}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771526" y="19050"/>
+          <a:ext cx="4859152" cy="5581650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1207,7 +1697,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1300,7 +1790,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1349,7 +1839,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1661,143 +2151,165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEE8F47-2239-41AB-A04C-31245F126C81}">
-  <dimension ref="A3:T31"/>
+  <dimension ref="A2:W45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="8" style="10" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" customWidth="1"/>
-    <col min="14" max="14" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="63.125" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11" customWidth="1"/>
+    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5" customWidth="1"/>
+    <col min="22" max="22" width="63.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23">
+      <c r="F2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="C3" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="S3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="6" t="s">
+      <c r="U3" s="6"/>
+      <c r="V3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="6"/>
+    </row>
+    <row r="4" spans="1:23" s="24" customFormat="1" ht="15" customHeight="1">
+      <c r="B4" s="25">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="5">
+        <v>600705</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="K4" s="5">
+        <v>7.27</v>
+      </c>
+      <c r="L4" s="5">
+        <v>7.4200000000000002E-2</v>
+      </c>
+      <c r="M4" s="42">
+        <v>3.04E-2</v>
+      </c>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+    </row>
+    <row r="5" spans="1:23" s="24" customFormat="1">
+      <c r="B5" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="T3" s="6"/>
-    </row>
-    <row r="4" spans="1:20" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="26">
-        <v>1</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="28">
-        <v>600705</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27">
-        <v>0.85</v>
-      </c>
-      <c r="N4" s="27">
-        <v>10.47</v>
-      </c>
-      <c r="O4" s="30">
-        <v>0.1134</v>
-      </c>
-      <c r="P4" s="29">
-        <v>7.4200000000000002E-2</v>
-      </c>
-      <c r="Q4" s="31" t="s">
+      <c r="F5" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+    </row>
+    <row r="6" spans="1:23" s="18" customFormat="1">
+      <c r="A6"/>
+      <c r="B6" s="23" t="s">
         <v>53</v>
-      </c>
-      <c r="R4" s="29"/>
-      <c r="S4" s="27"/>
-    </row>
-    <row r="5" spans="1:20" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="27"/>
-    </row>
-    <row r="6" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6"/>
-      <c r="B6" s="24" t="s">
-        <v>55</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="9"/>
@@ -1811,20 +2323,25 @@
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
-      <c r="O6" s="20"/>
+      <c r="O6" s="19"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="19"/>
       <c r="R6" s="19"/>
-      <c r="S6" s="21"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="24" t="s">
-        <v>56</v>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="20"/>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="B7" s="23" t="s">
+        <v>54</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="9"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -1838,13 +2355,16 @@
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="24" t="s">
-        <v>57</v>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="B8" s="23" t="s">
+        <v>55</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="5"/>
@@ -1862,10 +2382,13 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="24" t="s">
-        <v>58</v>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="B9" s="23" t="s">
+        <v>56</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="9"/>
@@ -1884,10 +2407,13 @@
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="24" t="s">
-        <v>59</v>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="B10" s="23" t="s">
+        <v>57</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="9"/>
@@ -1895,7 +2421,9 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="J10" s="5" t="s">
+        <v>94</v>
+      </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -1905,15 +2433,18 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
-    </row>
-    <row r="11" spans="1:20" ht="57" x14ac:dyDescent="0.2">
-      <c r="B11" s="24" t="s">
-        <v>60</v>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+    </row>
+    <row r="11" spans="1:23" ht="57">
+      <c r="B11" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="9"/>
       <c r="E11" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1928,18 +2459,21 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
-      <c r="S11" s="22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="24" t="s">
-        <v>61</v>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="B12" s="23" t="s">
+        <v>59</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="9"/>
       <c r="E12" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -1955,18 +2489,21 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="24" t="s">
-        <v>62</v>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="B13" s="23" t="s">
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="24" t="s">
-        <v>63</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="B14" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="9"/>
@@ -1985,10 +2522,13 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="24" t="s">
-        <v>64</v>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="B15" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="9"/>
@@ -2007,19 +2547,22 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="24" t="s">
-        <v>65</v>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="B16" s="23" t="s">
+        <v>63</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -2035,17 +2578,20 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B17" s="24" t="s">
-        <v>66</v>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+    </row>
+    <row r="17" spans="2:22">
+      <c r="B17" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -2061,10 +2607,13 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
-    </row>
-    <row r="18" spans="2:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B18" s="24" t="s">
-        <v>67</v>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+    </row>
+    <row r="18" spans="2:22" ht="17.25">
+      <c r="B18" s="23" t="s">
+        <v>65</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="9"/>
@@ -2082,13 +2631,16 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
-      <c r="S18" s="32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B19" s="24" t="s">
-        <v>68</v>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="B19" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="9"/>
@@ -2107,10 +2659,13 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
-    </row>
-    <row r="20" spans="2:19" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="B20" s="24" t="s">
-        <v>69</v>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+    </row>
+    <row r="20" spans="2:22" ht="99.75">
+      <c r="B20" s="23" t="s">
+        <v>67</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="9"/>
@@ -2128,13 +2683,16 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
-      <c r="S20" s="23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B21" s="24" t="s">
-        <v>70</v>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22">
+      <c r="B21" s="23" t="s">
+        <v>68</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="9"/>
@@ -2153,10 +2711,13 @@
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B22" s="24" t="s">
-        <v>71</v>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+    </row>
+    <row r="22" spans="2:22">
+      <c r="B22" s="23" t="s">
+        <v>69</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="9"/>
@@ -2175,10 +2736,13 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B23" s="24" t="s">
-        <v>72</v>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+    </row>
+    <row r="23" spans="2:22">
+      <c r="B23" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="9"/>
@@ -2197,10 +2761,13 @@
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B24" s="24" t="s">
-        <v>73</v>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+    </row>
+    <row r="24" spans="2:22">
+      <c r="B24" s="23" t="s">
+        <v>71</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="9"/>
@@ -2219,99 +2786,189 @@
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
-    </row>
-    <row r="29" spans="2:19" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+    </row>
+    <row r="29" spans="2:22" ht="18.75">
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="2:19" ht="18.75" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" ht="18.75">
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="D31" s="33" t="s">
-        <v>76</v>
-      </c>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" ht="17.25">
+      <c r="D31" s="30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="5:20">
+      <c r="E36" s="40"/>
+      <c r="J36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="41"/>
+    </row>
+    <row r="37" spans="5:20">
+      <c r="E37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="41"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="41"/>
+    </row>
+    <row r="38" spans="5:20">
+      <c r="E38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="41"/>
+      <c r="S38" s="41"/>
+      <c r="T38" s="41"/>
+    </row>
+    <row r="39" spans="5:20">
+      <c r="E39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+    </row>
+    <row r="40" spans="5:20">
+      <c r="E40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="41"/>
+      <c r="T40" s="41"/>
+    </row>
+    <row r="41" spans="5:20">
+      <c r="E41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="41"/>
+      <c r="S41" s="41"/>
+      <c r="T41" s="41"/>
+    </row>
+    <row r="42" spans="5:20">
+      <c r="E42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="41"/>
+      <c r="T42" s="41"/>
+    </row>
+    <row r="43" spans="5:20">
+      <c r="E43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="41"/>
+      <c r="T43" s="41"/>
+    </row>
+    <row r="44" spans="5:20">
+      <c r="E44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="N44" s="41"/>
+      <c r="O44" s="41"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="41"/>
+      <c r="S44" s="41"/>
+      <c r="T44" s="41"/>
+    </row>
+    <row r="45" spans="5:20" ht="119.25" customHeight="1">
+      <c r="E45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="41"/>
+      <c r="S45" s="41"/>
+      <c r="T45" s="41"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:Q24" xr:uid="{ABEE8F47-2239-41AB-A04C-31245F126C81}"/>
+  <autoFilter ref="B3:T24" xr:uid="{ABEE8F47-2239-41AB-A04C-31245F126C81}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C14:C1048576 C1:C12">
+  <conditionalFormatting sqref="C14:E1048576 D4 C5:E12 C1:E3 J4:M4">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>持仓</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>持仓</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
+  <conditionalFormatting sqref="C4:E4">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>持仓</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C1048576 C1:C12" xr:uid="{E24A8F25-7D32-4724-869B-75791B46CC09}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:E12 C14:E1048576" xr:uid="{E24A8F25-7D32-4724-869B-75791B46CC09}">
       <formula1>"持仓,候选,清仓"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" location="/company?companyid=600705" display="http://webapi.cninfo.com.cn/ - /company?companyid=600705" xr:uid="{C51753C8-C3BD-41CA-B2EA-9033D360DAB2}"/>
-    <hyperlink ref="M4" r:id="rId2" tooltip="市净率" display="https://eniu.com/gu/sh600705/pb" xr:uid="{34C1B6F5-4EFC-407A-B240-C6C76EA6106A}"/>
-    <hyperlink ref="P4" r:id="rId3" tooltip="ROE" display="https://eniu.com/gu/sh600705/roe" xr:uid="{0C051460-B2CE-4ECE-BFF7-61658600C6C1}"/>
+    <hyperlink ref="L4" r:id="rId2" tooltip="ROE" display="https://eniu.com/gu/sh600705/roe" xr:uid="{0C051460-B2CE-4ECE-BFF7-61658600C6C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="S11:S37"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E52B28-0AF9-4383-9C00-6C1304B1281E}">
+  <dimension ref="B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="44" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="11" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="19:19" ht="21" x14ac:dyDescent="0.4">
-      <c r="S12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="19:19" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="S14" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="19:19" ht="20.25" x14ac:dyDescent="0.35">
-      <c r="S15" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S17" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="19:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="S36" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S37" t="s">
-        <v>5</v>
+    <row r="1" spans="2:2" ht="103.5">
+      <c r="B1" s="31" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2322,30 +2979,400 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A325E9-2EA5-4DC8-8750-89F7A01F1F26}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9C8A66-C282-4E99-8EA8-891CBD6B2B84}">
+  <dimension ref="B1:E45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="35.25" customWidth="1"/>
+    <col min="3" max="3" width="32.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="17.25">
+      <c r="B1" s="31"/>
+      <c r="C1" s="33"/>
+    </row>
+    <row r="3" spans="2:5" ht="17.25">
+      <c r="B3" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="E5" s="32"/>
+    </row>
+    <row r="6" spans="2:5" ht="18">
+      <c r="B6" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="17.25">
+      <c r="B8" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="155.25">
+      <c r="B11" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="17.25">
+      <c r="B12" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" ht="33">
+      <c r="B44" s="47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" ht="132">
+      <c r="B45" s="47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD179F0-FF2B-4A84-A06F-334631CD6769}">
+  <dimension ref="D3:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+      <selection activeCell="E6" sqref="E6:M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="4" max="4" width="44.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:13">
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="4:13">
+      <c r="E6" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+    </row>
+    <row r="7" spans="4:13">
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+    </row>
+    <row r="8" spans="4:13">
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+    </row>
+    <row r="9" spans="4:13">
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+    </row>
+    <row r="10" spans="4:13">
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+    </row>
+    <row r="11" spans="4:13">
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+    </row>
+    <row r="12" spans="4:13">
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+    </row>
+    <row r="13" spans="4:13">
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+    </row>
+    <row r="14" spans="4:13">
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+    </row>
+    <row r="15" spans="4:13">
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E6:M15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:S37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="51" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:19" ht="76.5">
+      <c r="B2" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="156.75">
+      <c r="B6" s="38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19">
+      <c r="S11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="21">
+      <c r="S12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="20.25">
+      <c r="S14" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" ht="20.25">
+      <c r="S15" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="19:19">
+      <c r="S17" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="19:19" ht="16.5">
+      <c r="S36" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="19:19">
+      <c r="S37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89400E2A-DE0A-4C88-A745-1DC1EADD5872}">
+  <dimension ref="B2:S37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="51" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:19" ht="199.5">
+      <c r="B2" s="38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19">
+      <c r="S11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="21">
+      <c r="S12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="20.25">
+      <c r="S14" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" ht="20.25">
+      <c r="S15" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="19:19">
+      <c r="S17" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="19:19" ht="16.5">
+      <c r="S36" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="19:19">
+      <c r="S37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A325E9-2EA5-4DC8-8750-89F7A01F1F26}">
+  <dimension ref="N6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="14" max="14" width="77.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="14:14">
+      <c r="N6" s="38"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C86E09-ADED-4FD0-9A9B-9BC50ACEA196}">
+  <dimension ref="C4:N6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="63.5" customWidth="1"/>
+    <col min="14" max="14" width="77.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:14" ht="142.5">
+      <c r="C4" s="38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14">
+      <c r="N6" s="38"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625DE84A-7388-4DEB-8BB6-E88F212EABBC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="V93" sqref="V93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2353,15 +3380,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD90B65-89D4-4735-9F63-CFF6F047220D}">
   <dimension ref="B1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="13"/>
     <col min="2" max="2" width="11.125" style="13" bestFit="1" customWidth="1"/>
@@ -2371,35 +3398,35 @@
     <col min="10" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9">
       <c r="B1" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="2:9">
       <c r="B2" s="17">
         <v>44519</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="13">
         <v>57.57</v>
@@ -2411,18 +3438,18 @@
         <v>3030</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
       <c r="B3" s="17">
         <v>44519</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="13">
         <v>15.37</v>
@@ -2434,87 +3461,87 @@
         <v>692.5</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="17">
         <v>44519</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="13">
         <v>119.75</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5" s="17">
         <v>44519</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="34.5" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="34.5">
       <c r="C6" s="15"/>
       <c r="I6" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
       <c r="C7" s="15"/>
     </row>
-    <row r="8" spans="2:9" ht="34.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" ht="34.5">
       <c r="C8" s="15"/>
-      <c r="D8" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="D8" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
       <c r="I8" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
       <c r="C9" s="15"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9">
       <c r="C10" s="15"/>
       <c r="I10" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
       <c r="C11" s="15"/>
       <c r="I11" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
       <c r="C12" s="15"/>
     </row>
-    <row r="13" spans="2:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" ht="17.25">
       <c r="C13" s="15"/>
       <c r="I13" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
       <c r="B14" s="17">
         <v>44688</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" s="13">
         <v>51.4</v>
@@ -2523,15 +3550,15 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" ht="17.25">
       <c r="B15" s="17">
         <v>44689</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="13">
         <v>13.77</v>
@@ -2540,43 +3567,43 @@
         <v>620</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
       <c r="B16" s="17">
         <v>44690</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="13">
         <v>113.9</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9">
       <c r="B17" s="17">
         <v>44691</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="13">
         <v>119.8</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9">
       <c r="C18" s="15"/>
     </row>
-    <row r="19" spans="2:9" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" ht="34.5">
       <c r="C19" s="15"/>
-      <c r="I19" s="38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I19" s="35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
       <c r="C20" s="15"/>
     </row>
   </sheetData>
@@ -2589,32 +3616,51 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D659C2-CE5D-4A79-9045-D321BE10808B}">
-  <dimension ref="C4:C13"/>
+  <dimension ref="B4:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="65.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="C4" s="41" t="s">
+    <row r="4" spans="3:3" ht="57">
+      <c r="C4" s="37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" ht="42.75">
+      <c r="C5" s="37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="3:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="C5" s="41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>86</v>
+    <row r="30" spans="2:3" ht="18.75">
+      <c r="C30" s="43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="C31" s="44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="20.25">
+      <c r="B32" s="45">
+        <v>44957</v>
+      </c>
+      <c r="C32" s="46">
+        <v>39.1</v>
       </c>
     </row>
   </sheetData>
@@ -2622,87 +3668,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E52B28-0AF9-4383-9C00-6C1304B1281E}">
-  <dimension ref="B1"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="44" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:2" ht="103.5" x14ac:dyDescent="0.3">
-      <c r="B1" s="34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF9C8A66-C282-4E99-8EA8-891CBD6B2B84}">
-  <dimension ref="B1:E12"/>
-  <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="35.25" customWidth="1"/>
-    <col min="3" max="3" width="32.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B1" s="34"/>
-      <c r="C1" s="36"/>
-    </row>
-    <row r="3" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E5" s="35"/>
-    </row>
-    <row r="6" spans="2:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B8" s="32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="155.25" x14ac:dyDescent="0.3">
-      <c r="B11" s="39" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B12" s="32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>